--- a/HaierMDM/2015年6月23日欧洲Siebel与HopeMDM接口需求/接口文档/接口字段描述.xlsx
+++ b/HaierMDM/2015年6月23日欧洲Siebel与HopeMDM接口需求/接口文档/接口字段描述.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="1" r:id="rId1"/>
@@ -235,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>销售</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>货币代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -287,6 +283,10 @@
   </si>
   <si>
     <t>删除标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES Office</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -981,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -992,7 +992,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -1003,7 +1003,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -1025,7 +1025,7 @@
         <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1050,46 +1050,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -1100,7 +1100,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -1122,7 +1122,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
